--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A5D778-7501-450F-9370-55619FB317E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7595C05-45AC-4FC2-A74C-BE3F627184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -29,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="128">
-  <si>
-    <t>Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="124">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,18 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GBT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMING A16 PRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C7 240H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AORUS MASTER 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U9 275HX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AORUS Elite16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RTX5070</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GAMING A16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i7-13620H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +403,6 @@
   </si>
   <si>
     <t>RTX5060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMING A18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,14 +430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ROG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strix G16 G615LM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U7 255HX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TUF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R9 9955HX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +491,27 @@
   </si>
   <si>
     <t>TimeSpyExtreme/GPU</t>
+  </si>
+  <si>
+    <t>Brand Model Name</t>
+  </si>
+  <si>
+    <t>GBT GAMING A16 PRO</t>
+  </si>
+  <si>
+    <t>GBT AORUS MASTER 16</t>
+  </si>
+  <si>
+    <t>GBT AORUS Elite16</t>
+  </si>
+  <si>
+    <t>GBT GAMING A16</t>
+  </si>
+  <si>
+    <t>GBT GAMING A18</t>
+  </si>
+  <si>
+    <t>ROG Strix G16 G615LM</t>
   </si>
 </sst>
 </file>
@@ -608,10 +585,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,7 +600,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,81 +937,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.69140625" style="1"/>
+    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -1046,16 +1022,16 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -1064,10 +1040,10 @@
         <v>9</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>12</v>
@@ -1076,16 +1052,16 @@
         <v>13</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>18</v>
@@ -1094,1130 +1070,1097 @@
         <v>19</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>82</v>
+      </c>
+      <c r="E2" s="1">
+        <v>70</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1">
+        <v>130</v>
+      </c>
+      <c r="L2" s="1">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>240</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1">
+        <v>150</v>
+      </c>
+      <c r="E3" s="1">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="1">
+        <v>200</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1">
+        <v>230</v>
+      </c>
+      <c r="L3" s="1">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="P3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1">
-        <v>82</v>
-      </c>
-      <c r="F2" s="1">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="1">
-        <v>130</v>
-      </c>
-      <c r="M2" s="1">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>400</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1">
+      <c r="R3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="1">
         <v>2</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>240</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="1">
-        <v>150</v>
-      </c>
-      <c r="F3" s="1">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="1">
-        <v>200</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="1">
-        <v>230</v>
-      </c>
-      <c r="M3" s="1">
-        <v>16</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V3" s="1">
         <v>2</v>
       </c>
-      <c r="W3" s="1">
-        <v>2</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y3" s="1">
+      <c r="W3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X3" s="1">
         <v>1000</v>
       </c>
+      <c r="Y3" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="Z3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
       </c>
       <c r="AB3" s="1">
         <v>1</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AD3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE3" s="1">
         <v>4</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>40</v>
+      <c r="AE3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>99</v>
       </c>
       <c r="AG3" s="1">
-        <v>99</v>
-      </c>
-      <c r="AH3" s="1">
         <v>330</v>
       </c>
+      <c r="AH3" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AI3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK3" s="1">
+        <v>85</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>150</v>
+      </c>
+      <c r="E4" s="1">
+        <v>125</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1">
+        <v>230</v>
+      </c>
+      <c r="L4" s="1">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="1">
-        <v>150</v>
-      </c>
-      <c r="F4" s="1">
-        <v>125</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="1">
-        <v>200</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="1">
-        <v>230</v>
-      </c>
-      <c r="M4" s="1">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="T4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2</v>
       </c>
       <c r="V4" s="1">
         <v>2</v>
       </c>
-      <c r="W4" s="1">
-        <v>2</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="W4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4" s="1">
         <v>1000</v>
       </c>
+      <c r="Y4" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="Z4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
       </c>
       <c r="AB4" s="1">
         <v>1</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AD4" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="1">
         <v>4</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>40</v>
+      <c r="AE4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>99</v>
       </c>
       <c r="AG4" s="1">
-        <v>99</v>
-      </c>
-      <c r="AH4" s="1">
         <v>330</v>
       </c>
+      <c r="AH4" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="AI4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1">
+        <v>125</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>170</v>
+      </c>
+      <c r="L5" s="1">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="1">
-        <v>150</v>
-      </c>
-      <c r="F5" s="1">
-        <v>125</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="1">
-        <v>200</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="1">
-        <v>170</v>
-      </c>
-      <c r="M5" s="1">
-        <v>16</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>400</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="T5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2</v>
       </c>
       <c r="V5" s="1">
         <v>2</v>
       </c>
-      <c r="W5" s="1">
-        <v>2</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="W5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="1">
         <v>1000</v>
       </c>
+      <c r="Y5" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="Z5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
       </c>
       <c r="AB5" s="1">
         <v>1</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>99</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>240</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="L6" s="1">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="1">
         <v>2</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>99</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>240</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="1">
-        <v>82</v>
-      </c>
-      <c r="F6" s="1">
-        <v>70</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="1">
-        <v>100</v>
-      </c>
-      <c r="M6" s="1">
-        <v>16</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>400</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V6" s="1">
         <v>2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD6" s="1">
         <v>2</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>76</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>150</v>
+      </c>
+      <c r="AH6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD6" s="1">
+      <c r="AI6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
         <v>100</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="L7" s="1">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1">
         <v>2</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>76</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>150</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="1">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1">
-        <v>70</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="1">
-        <v>100</v>
-      </c>
-      <c r="M7" s="1">
-        <v>16</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>400</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V7" s="1">
         <v>2</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="1">
         <v>2</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>76</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>150</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Y7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD7" s="1">
+      <c r="AI7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
         <v>100</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="L8" s="1">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="1">
         <v>2</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>76</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>150</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="1">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1">
-        <v>100</v>
-      </c>
-      <c r="M8" s="1">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>300</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V8" s="1">
         <v>2</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="1">
         <v>2</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
+        <v>76</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>150</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1">
         <v>100</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="L9" s="1">
+        <v>18</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="1">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="1">
         <v>2</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>76</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>150</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="1">
-        <v>80</v>
-      </c>
-      <c r="F9" s="1">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="1">
-        <v>100</v>
-      </c>
-      <c r="M9" s="1">
-        <v>18</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>300</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V9" s="1">
         <v>2</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="1">
         <v>2</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
+        <v>76</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>150</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="D10" s="1">
+        <v>175</v>
+      </c>
+      <c r="E10" s="1">
+        <v>140</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>170</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="1">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="1">
         <v>2</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>76</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>150</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="1">
-        <v>175</v>
-      </c>
-      <c r="F10" s="1">
-        <v>140</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="1">
-        <v>50</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
-      </c>
-      <c r="L10" s="1">
-        <v>170</v>
-      </c>
-      <c r="M10" s="1">
-        <v>16</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1">
-        <v>165</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="V10" s="1">
         <v>2</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="1">
         <v>2</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>40</v>
+      <c r="AF10" s="1">
+        <v>90</v>
       </c>
       <c r="AG10" s="1">
+        <v>280</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1">
         <v>90</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>280</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E11" s="1">
         <v>90</v>
       </c>
-      <c r="F11" s="1">
-        <v>90</v>
+      <c r="F11" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
       </c>
       <c r="J11" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L11" s="1">
-        <v>170</v>
-      </c>
-      <c r="M11" s="1">
         <v>16</v>
       </c>
+      <c r="M11" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="N11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="1">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1">
         <v>165</v>
       </c>
+      <c r="Q11" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="R11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="U11" s="1">
+        <v>2</v>
       </c>
       <c r="V11" s="1">
         <v>2</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>100</v>
+      </c>
+      <c r="AD11" s="1">
         <v>2</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>100</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>40</v>
+      <c r="AF11" s="1">
+        <v>90</v>
       </c>
       <c r="AG11" s="1">
-        <v>90</v>
-      </c>
-      <c r="AH11" s="1">
         <v>280</v>
       </c>
+      <c r="AH11" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="AI11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK11" s="1">
+        <v>109</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2232,12 +2175,12 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
@@ -2255,54 +2198,54 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>1947</v>
@@ -2343,10 +2286,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2">
         <v>2243</v>
@@ -2387,10 +2330,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2">
         <v>2247</v>
@@ -2419,10 +2362,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2">
         <v>2200</v>
@@ -2451,10 +2394,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
         <v>1829</v>
@@ -2483,10 +2426,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2">
         <v>1834</v>
@@ -2515,10 +2458,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2">
         <v>1790</v>
@@ -2547,10 +2490,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2">
         <v>1759</v>
@@ -2579,10 +2522,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>2140</v>
@@ -2593,10 +2536,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
         <v>2165</v>
@@ -2616,12 +2559,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.07421875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.61328125" style="3" bestFit="1" customWidth="1"/>
@@ -2633,40 +2576,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
+      <c r="A1" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
+      <c r="A2" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3">
         <v>42826</v>
@@ -2685,14 +2628,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
+      <c r="A3" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3">
         <v>51587</v>
@@ -2711,14 +2654,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>74</v>
+      <c r="A4" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5">
         <v>49861</v>
@@ -2737,14 +2680,14 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>92</v>
+      <c r="A5" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5">
         <v>35460</v>
@@ -2763,14 +2706,14 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>96</v>
+      <c r="A6" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5">
         <v>30785</v>
@@ -2789,14 +2732,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>96</v>
+      <c r="A7" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5">
         <v>29174</v>
@@ -2815,14 +2758,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
+      <c r="A8" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5">
         <v>30201</v>
@@ -2841,14 +2784,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>101</v>
+      <c r="A9" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5">
         <v>26129</v>
@@ -2867,28 +2810,28 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>109</v>
+      <c r="A10" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3">
         <v>12657</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>116</v>
+      <c r="A11" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3">
         <v>13957</v>
@@ -2905,12 +2848,12 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
@@ -2934,89 +2877,89 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6">
         <v>164.15</v>
@@ -3066,16 +3009,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>157.81</v>
@@ -3125,16 +3068,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>132.15</v>
@@ -3184,16 +3127,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>81.08</v>
@@ -3243,44 +3186,44 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3293,13 +3236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
@@ -3323,89 +3264,89 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6">
         <v>125.13</v>
@@ -3455,16 +3396,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2">
         <v>116.84</v>
@@ -3514,16 +3455,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>77.489999999999995</v>
@@ -3573,16 +3514,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2">
         <v>65.78</v>
@@ -3632,58 +3573,58 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6">
         <v>71</v>
@@ -3694,16 +3635,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K11" s="6">
         <v>120</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G634JYR\Desktop\benchmark-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7595C05-45AC-4FC2-A74C-BE3F627184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22906C34-644B-491B-8DFB-E43C97F50238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -190,114 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R23/1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R23/nT 1 run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R23/nT 10 mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24/1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24/nT 1 run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24/nT 10 mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FHD Benchmark/X264</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FHD Benchmark/X265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Overall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Essentials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Productivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Digital Content Creation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyberpunk 2077 (2022)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forza Horizon 5 (2021)/Extreme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gears 5 (2019)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gears of War Reloaded (2025)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Dead Redemption 2 (2019)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rise of the Tomb Raider (2015)/Very High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow of the Tomb Raider (2018)/Highest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assassin's Creed Odyssey (2018)/Ultra High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black Myth: Wukong (2024)/High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS2 (2023)/Very High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOOM: The Dark Ages  (Hebeth) (2025)/Ultra Nightmare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1-24 (2024)/Ultra High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metro Exodus (2019)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster Hunter Wilds Benchmark (2025)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6 Rainbow Six Siege (2015)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PL2/sPPT(W)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,21 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireStrike/GPU</t>
-  </si>
-  <si>
-    <t>FireStrikeExtreme/GPU</t>
-  </si>
-  <si>
-    <t>FireStrikeUltra/GPU</t>
-  </si>
-  <si>
-    <t>TimeSpy/GPU</t>
-  </si>
-  <si>
-    <t>TimeSpyExtreme/GPU</t>
-  </si>
-  <si>
     <t>Brand Model Name</t>
   </si>
   <si>
@@ -512,6 +389,134 @@
   </si>
   <si>
     <t>ROG Strix G16 G615LM</t>
+  </si>
+  <si>
+    <t>R23 [1T]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R23 [nT] 1 run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R23 [nT] 10 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 [1T]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 [nT] 1 run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 [nT] 10 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHD Benchmark [X264]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHD Benchmark [X265]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Overall]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Essentials]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Productivity]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Digital Content Creation]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStrike [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStrike Extreme [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStrike Ultra [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpy [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpy Extreme [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forza Horizon 5 [Extreme]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gears of War Reloaded [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Dead Redemption 2 [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rise of the Tomb Raider [Very High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin's Creed Odyssey [Ultra High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Myth: Wukong [High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS2 [Very High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOOM: The Dark Ages  (Hebeth) [Ultra Nightmare]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1-24 [Ultra High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metro Exodus [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster Hunter Wilds Benchmark [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6 Rainbow Six Siege [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gears 5 [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow of the Tomb Raider [Highest]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,28 +524,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -548,13 +553,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,7 +605,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,63 +944,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.69140625" style="1"/>
+    <col min="32" max="32" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>37</v>
@@ -1022,13 +1027,13 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1085,21 +1090,21 @@
         <v>23</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1132,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>28</v>
@@ -1159,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X2" s="1">
         <v>1000</v>
@@ -1192,24 +1197,24 @@
         <v>240</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -1218,13 +1223,13 @@
         <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1">
         <v>200</v>
@@ -1239,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>28</v>
@@ -1254,7 +1259,7 @@
         <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>32</v>
@@ -1266,16 +1271,16 @@
         <v>2</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1">
         <v>1000</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AA3" s="1">
         <v>1</v>
@@ -1299,24 +1304,24 @@
         <v>330</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="AJ3" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1331,7 +1336,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>200</v>
@@ -1346,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>28</v>
@@ -1361,7 +1366,7 @@
         <v>29</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>32</v>
@@ -1373,16 +1378,16 @@
         <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X4" s="1">
         <v>1000</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="1">
         <v>1</v>
@@ -1406,24 +1411,24 @@
         <v>330</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="AJ4" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
         <v>150</v>
@@ -1432,10 +1437,10 @@
         <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>39</v>
@@ -1453,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>28</v>
@@ -1468,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>32</v>
@@ -1480,16 +1485,16 @@
         <v>2</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X5" s="1">
         <v>1000</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AA5" s="1">
         <v>1</v>
@@ -1513,24 +1518,24 @@
         <v>240</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AJ5" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>82</v>
@@ -1539,13 +1544,13 @@
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>32</v>
@@ -1560,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>28</v>
@@ -1575,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>32</v>
@@ -1587,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X6" s="1">
         <v>1000</v>
@@ -1620,24 +1625,24 @@
         <v>150</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AJ6" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>82</v>
@@ -1646,13 +1651,13 @@
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
@@ -1667,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>28</v>
@@ -1682,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>32</v>
@@ -1694,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X7" s="1">
         <v>1000</v>
@@ -1727,24 +1732,24 @@
         <v>150</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AJ7" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
@@ -1753,13 +1758,13 @@
         <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>32</v>
@@ -1774,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>28</v>
@@ -1789,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>32</v>
@@ -1801,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X8" s="1">
         <v>1000</v>
@@ -1834,24 +1839,24 @@
         <v>150</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AJ8" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
@@ -1860,13 +1865,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>32</v>
@@ -1881,10 +1886,10 @@
         <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="P9" s="1">
         <v>300</v>
@@ -1896,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>32</v>
@@ -1908,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X9" s="1">
         <v>1000</v>
@@ -1941,24 +1946,24 @@
         <v>150</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AJ9" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1">
         <v>175</v>
@@ -1967,10 +1972,10 @@
         <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
@@ -1988,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>28</v>
@@ -2003,7 +2008,7 @@
         <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>32</v>
@@ -2015,16 +2020,16 @@
         <v>2</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X10" s="1">
         <v>1000</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>32</v>
@@ -2048,24 +2053,24 @@
         <v>280</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AJ10" s="1">
         <v>2.65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1">
         <v>90</v>
@@ -2074,10 +2079,10 @@
         <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -2095,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>28</v>
@@ -2110,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>32</v>
@@ -2122,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X11" s="1">
         <v>1000</v>
@@ -2131,7 +2136,7 @@
         <v>33</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>32</v>
@@ -2155,10 +2160,10 @@
         <v>280</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AJ11" s="1">
         <v>2.2999999999999998</v>
@@ -2175,74 +2180,74 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69140625" style="1"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -2284,12 +2289,12 @@
         <v>12241</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2243</v>
@@ -2328,12 +2333,12 @@
         <v>18867</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>2247</v>
@@ -2360,12 +2365,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>2200</v>
@@ -2392,12 +2397,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2">
         <v>1829</v>
@@ -2424,12 +2429,12 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>1834</v>
@@ -2456,12 +2461,12 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
         <v>1790</v>
@@ -2488,12 +2493,12 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
         <v>1759</v>
@@ -2520,12 +2525,12 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1">
         <v>2140</v>
@@ -2534,12 +2539,12 @@
         <v>31375</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>2165</v>
@@ -2559,25 +2564,25 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.61328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69140625" style="3"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2586,24 +2591,24 @@
         <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -2627,15 +2632,15 @@
         <v>8041</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3">
         <v>51587</v>
@@ -2653,15 +2658,15 @@
         <v>11769</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5">
         <v>49861</v>
@@ -2679,12 +2684,12 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
@@ -2705,15 +2710,15 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5">
         <v>30785</v>
@@ -2731,15 +2736,15 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5">
         <v>29174</v>
@@ -2757,15 +2762,15 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5">
         <v>30201</v>
@@ -2783,15 +2788,15 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5">
         <v>26129</v>
@@ -2809,12 +2814,12 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
@@ -2823,12 +2828,12 @@
         <v>12657</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
@@ -2848,36 +2853,35 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="I1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.69140625" style="6"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="34.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="25.54296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2889,54 +2893,54 @@
         <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -2948,18 +2952,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6">
         <v>164.15</v>
@@ -3007,18 +3011,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>157.81</v>
@@ -3066,15 +3070,15 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -3125,18 +3129,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>81.08</v>
@@ -3184,46 +3188,46 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3236,35 +3240,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.69140625" style="6"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="34.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3276,54 +3281,54 @@
         <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3335,18 +3340,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6">
         <v>125.13</v>
@@ -3394,18 +3399,18 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>116.84</v>
@@ -3453,15 +3458,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -3512,18 +3517,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>65.78</v>
@@ -3571,57 +3576,57 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>39</v>
@@ -3633,15 +3638,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
